--- a/FeedbackDatabaseDesign.xlsx
+++ b/FeedbackDatabaseDesign.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gauti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Feedback\feedback\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="569"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" tabRatio="569"/>
   </bookViews>
   <sheets>
     <sheet name="ERDesign" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="127">
   <si>
     <t>effective_from</t>
   </si>
@@ -247,9 +247,6 @@
     <t>CourseFeedbackAssignment</t>
   </si>
   <si>
-    <t>feedback_weightage</t>
-  </si>
-  <si>
     <t>is_given</t>
   </si>
   <si>
@@ -398,12 +395,18 @@
   </si>
   <si>
     <t xml:space="preserve">1-Student, 2-Faculty , 3-HOD </t>
+  </si>
+  <si>
+    <t>feedback_weighting(age)</t>
+  </si>
+  <si>
+    <t>feedback_weighting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,6 +621,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -644,9 +650,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -743,23 +746,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -795,23 +781,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -990,22 +959,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="80.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="80.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1017,10 +986,10 @@
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
       <c r="G1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -1028,7 +997,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1048,7 +1017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1038,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1089,10 +1058,10 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1100,7 +1069,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1108,7 +1077,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1116,7 +1085,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1097,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1136,7 +1105,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1156,7 +1125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1177,7 +1146,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1197,10 +1166,10 @@
         <v>24</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1220,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1204,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -1243,7 +1212,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1263,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1283,10 +1252,10 @@
         <v>24</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1306,7 +1275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1326,7 +1295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -1346,7 +1315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1366,7 +1335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1386,7 +1355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1406,7 +1375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -1426,7 +1395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -1438,7 +1407,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -1446,7 +1415,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1486,10 +1455,10 @@
         <v>24</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>0</v>
       </c>
@@ -1509,10 +1478,10 @@
         <v>14</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>48</v>
       </c>
@@ -1532,7 +1501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -1544,10 +1513,10 @@
       <c r="E41" s="3"/>
       <c r="F41" s="2"/>
       <c r="G41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1555,7 +1524,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
@@ -1575,7 +1544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -1596,7 +1565,7 @@
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -1616,10 +1585,10 @@
         <v>24</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
@@ -1639,10 +1608,10 @@
         <v>14</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1662,7 +1631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -1674,10 +1643,10 @@
       <c r="E51" s="3"/>
       <c r="F51" s="2"/>
       <c r="G51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -1685,7 +1654,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -1725,7 +1694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -1745,10 +1714,10 @@
         <v>24</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -1760,7 +1729,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -1768,7 +1737,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
@@ -1808,10 +1777,10 @@
         <v>24</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>54</v>
       </c>
@@ -1831,7 +1800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -1843,7 +1812,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -1851,7 +1820,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>15</v>
       </c>
@@ -1871,7 +1840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>40</v>
       </c>
@@ -1891,10 +1860,10 @@
         <v>39</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
@@ -1914,10 +1883,10 @@
         <v>42</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -1937,7 +1906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>46</v>
       </c>
@@ -1957,7 +1926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>47</v>
       </c>
@@ -1977,7 +1946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -1997,10 +1966,10 @@
         <v>51</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -2020,10 +1989,10 @@
         <v>53</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>49</v>
       </c>
@@ -2043,10 +2012,10 @@
         <v>24</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>50</v>
       </c>
@@ -2066,7 +2035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>13</v>
       </c>
@@ -2078,7 +2047,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2086,7 +2055,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>15</v>
       </c>
@@ -2106,7 +2075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>40</v>
       </c>
@@ -2126,7 +2095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>43</v>
       </c>
@@ -2146,7 +2115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>46</v>
       </c>
@@ -2166,7 +2135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>55</v>
       </c>
@@ -2186,10 +2155,10 @@
         <v>24</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>63</v>
       </c>
@@ -2209,7 +2178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>56</v>
       </c>
@@ -2229,7 +2198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>13</v>
       </c>
@@ -2241,7 +2210,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -2249,7 +2218,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>15</v>
       </c>
@@ -2269,7 +2238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>59</v>
       </c>
@@ -2289,7 +2258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>73</v>
       </c>
@@ -2309,7 +2278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="12"/>
       <c r="C99" s="11"/>
@@ -2317,7 +2286,7 @@
       <c r="E99" s="12"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
       <c r="C100" s="11"/>
@@ -2325,7 +2294,7 @@
       <c r="E100" s="12"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
       <c r="C101" s="11"/>
@@ -2333,7 +2302,7 @@
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>13</v>
       </c>
@@ -2345,7 +2314,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -2353,7 +2322,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>15</v>
       </c>
@@ -2373,12 +2342,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>22</v>
@@ -2393,7 +2362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>59</v>
       </c>
@@ -2413,7 +2382,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>60</v>
       </c>
@@ -2433,7 +2402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>61</v>
       </c>
@@ -2453,7 +2422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>13</v>
       </c>
@@ -2465,7 +2434,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -2473,7 +2442,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>15</v>
       </c>
@@ -2493,7 +2462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>10</v>
       </c>
@@ -2513,10 +2482,10 @@
         <v>24</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>40</v>
       </c>
@@ -2536,7 +2505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
@@ -2556,7 +2525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>46</v>
       </c>
@@ -2576,7 +2545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -2596,7 +2565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>5</v>
       </c>
@@ -2616,7 +2585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>64</v>
       </c>
@@ -2636,10 +2605,10 @@
         <v>24</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>30</v>
       </c>
@@ -2659,7 +2628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>13</v>
       </c>
@@ -2671,7 +2640,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -2679,7 +2648,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>15</v>
       </c>
@@ -2699,7 +2668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>66</v>
       </c>
@@ -2719,7 +2688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>67</v>
       </c>
@@ -2739,10 +2708,10 @@
         <v>24</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>13</v>
       </c>
@@ -2754,7 +2723,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -2762,7 +2731,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>15</v>
       </c>
@@ -2782,11 +2751,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B137" s="3"/>
+      <c r="B137" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C137" s="2" t="s">
         <v>22</v>
       </c>
@@ -2800,11 +2771,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B138" s="3"/>
+      <c r="B138" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C138" s="2" t="s">
         <v>22</v>
       </c>
@@ -2818,11 +2791,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B139" s="3"/>
+      <c r="B139" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C139" s="2" t="s">
         <v>22</v>
       </c>
@@ -2836,11 +2811,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B140" s="3"/>
+      <c r="B140" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C140" s="2" t="s">
         <v>22</v>
       </c>
@@ -2854,11 +2831,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="3"/>
+      <c r="B141" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C141" s="2" t="s">
         <v>22</v>
       </c>
@@ -2872,11 +2851,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B142" s="3"/>
+      <c r="B142" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C142" s="2" t="s">
         <v>22</v>
       </c>
@@ -2890,7 +2871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>13</v>
       </c>
@@ -2902,7 +2883,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -2910,7 +2891,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>15</v>
       </c>
@@ -2930,7 +2911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>10</v>
       </c>
@@ -2950,7 +2931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>8</v>
       </c>
@@ -2970,7 +2951,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>13</v>
       </c>
@@ -2982,7 +2963,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -2990,7 +2971,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>15</v>
       </c>
@@ -3010,7 +2991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>10</v>
       </c>
@@ -3030,7 +3011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>8</v>
       </c>
@@ -3050,7 +3031,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>59</v>
       </c>
@@ -3070,7 +3051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>11</v>
       </c>
@@ -3090,7 +3071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>12</v>
       </c>
@@ -3110,31 +3091,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G162" s="21"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B162" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D162" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E162" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F162" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" s="21"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="B163" s="3" t="s">
         <v>21</v>
       </c>
@@ -3151,7 +3132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="7"/>
       <c r="C164" s="9"/>
@@ -3159,7 +3140,7 @@
       <c r="E164" s="7"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="7"/>
       <c r="C165" s="9"/>
@@ -3167,19 +3148,19 @@
       <c r="E165" s="7"/>
       <c r="F165" s="6"/>
     </row>
-    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -3187,7 +3168,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>15</v>
       </c>
@@ -3207,9 +3188,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>21</v>
@@ -3227,7 +3208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>10</v>
       </c>
@@ -3247,7 +3228,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>59</v>
       </c>
@@ -3267,9 +3248,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="B173" s="20" t="s">
         <v>21</v>
@@ -3288,9 +3269,9 @@
       </c>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>25</v>
@@ -3308,19 +3289,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -3328,7 +3309,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>15</v>
       </c>
@@ -3348,9 +3329,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>21</v>
@@ -3365,10 +3346,10 @@
         <v>23</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>10</v>
       </c>
@@ -3385,10 +3366,10 @@
         <v>23</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>59</v>
       </c>
@@ -3405,10 +3386,10 @@
         <v>23</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>60</v>
       </c>
@@ -3429,9 +3410,9 @@
       </c>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="B185" s="20" t="s">
         <v>21</v>
@@ -3449,12 +3430,12 @@
         <v>24</v>
       </c>
       <c r="G185" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B186" s="20" t="s">
         <v>21</v>
@@ -3472,22 +3453,22 @@
         <v>24</v>
       </c>
       <c r="G186" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -3495,7 +3476,7 @@
       <c r="E191" s="3"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>15</v>
       </c>
@@ -3515,7 +3496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>10</v>
       </c>
@@ -3535,7 +3516,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>59</v>
       </c>
@@ -3555,190 +3536,190 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="10" t="s">
+      <c r="B196" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F196" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
+      <c r="B197" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F197" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="10" t="s">
+      <c r="B198" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E198" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F198" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
+      <c r="B199" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F199" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="10" t="s">
+      <c r="B200" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F200" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
+      <c r="B201" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F201" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="10" t="s">
+      <c r="B202" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F202" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+      <c r="B203" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F203" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="B204" s="3" t="s">
         <v>21</v>
       </c>
@@ -3755,19 +3736,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="2"/>
@@ -3775,7 +3756,7 @@
       <c r="E209" s="3"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>15</v>
       </c>
@@ -3795,9 +3776,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>21</v>
@@ -3815,9 +3796,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>25</v>
@@ -3835,22 +3816,22 @@
         <v>24</v>
       </c>
       <c r="G212" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="2"/>
@@ -3858,7 +3839,7 @@
       <c r="E217" s="3"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>15</v>
       </c>
@@ -3878,29 +3859,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="2" t="s">
@@ -3916,9 +3897,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="2" t="s">
@@ -3934,9 +3915,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="2" t="s">
@@ -3952,49 +3933,49 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B225" s="23"/>
-      <c r="C225" s="23"/>
-      <c r="D225" s="23"/>
-      <c r="E225" s="23"/>
-      <c r="F225" s="24"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="25"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
-      <c r="F226" s="27"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="25"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="26"/>
-      <c r="E227" s="26"/>
-      <c r="F227" s="27"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="25"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="27"/>
-    </row>
-    <row r="229" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="28"/>
-      <c r="B229" s="29"/>
-      <c r="C229" s="29"/>
-      <c r="D229" s="29"/>
-      <c r="E229" s="29"/>
-      <c r="F229" s="30"/>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B225" s="24"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="24"/>
+      <c r="F225" s="25"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="26"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="27"/>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="28"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="26"/>
+      <c r="B227" s="27"/>
+      <c r="C227" s="27"/>
+      <c r="D227" s="27"/>
+      <c r="E227" s="27"/>
+      <c r="F227" s="28"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="26"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="27"/>
+      <c r="D228" s="27"/>
+      <c r="E228" s="27"/>
+      <c r="F228" s="28"/>
+    </row>
+    <row r="229" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="29"/>
+      <c r="B229" s="30"/>
+      <c r="C229" s="30"/>
+      <c r="D229" s="30"/>
+      <c r="E229" s="30"/>
+      <c r="F229" s="31"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>1</v>
       </c>
@@ -4004,7 +3985,7 @@
     <mergeCell ref="A225:F229"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4014,7 +3995,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FeedbackDatabaseDesign.xlsx
+++ b/FeedbackDatabaseDesign.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Feedback\feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\feedback\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" tabRatio="569"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="569"/>
   </bookViews>
   <sheets>
     <sheet name="ERDesign" sheetId="2" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,6 +746,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -781,6 +798,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -959,22 +993,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="80.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="80.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -989,7 +1023,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -997,7 +1031,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1017,7 +1051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1072,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1095,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1069,7 +1103,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1077,7 +1111,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1085,7 +1119,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1097,7 +1131,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1105,7 +1139,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1146,7 +1180,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1169,7 +1203,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1192,7 +1226,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1238,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -1212,7 +1246,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1232,7 +1266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1289,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1275,7 +1309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1295,7 +1329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -1315,7 +1349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1335,7 +1369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1355,7 +1389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1375,7 +1409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -1395,7 +1429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -1407,7 +1441,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -1415,7 +1449,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -1435,7 +1469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1458,7 +1492,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1515,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>48</v>
       </c>
@@ -1501,7 +1535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1550,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1524,7 +1558,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
@@ -1544,7 +1578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -1565,7 +1599,7 @@
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -1588,7 +1622,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
@@ -1611,7 +1645,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1631,7 +1665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -1646,7 +1680,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -1654,7 +1688,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>15</v>
       </c>
@@ -1674,7 +1708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -1694,7 +1728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -1717,7 +1751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +1763,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -1737,7 +1771,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>15</v>
       </c>
@@ -1757,7 +1791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +1814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>54</v>
       </c>
@@ -1800,7 +1834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -1812,7 +1846,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -1820,7 +1854,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>40</v>
       </c>
@@ -1863,7 +1897,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
@@ -1886,7 +1920,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>46</v>
       </c>
@@ -1926,7 +1960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>47</v>
       </c>
@@ -1946,7 +1980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +2003,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -1992,7 +2026,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>49</v>
       </c>
@@ -2015,7 +2049,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>50</v>
       </c>
@@ -2035,7 +2069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>13</v>
       </c>
@@ -2047,7 +2081,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2055,7 +2089,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>15</v>
       </c>
@@ -2075,7 +2109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>40</v>
       </c>
@@ -2095,7 +2129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>43</v>
       </c>
@@ -2115,7 +2149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>46</v>
       </c>
@@ -2135,7 +2169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
         <v>55</v>
       </c>
@@ -2158,7 +2192,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
         <v>63</v>
       </c>
@@ -2178,7 +2212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>56</v>
       </c>
@@ -2198,7 +2232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>13</v>
       </c>
@@ -2210,7 +2244,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -2218,7 +2252,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>15</v>
       </c>
@@ -2238,7 +2272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>59</v>
       </c>
@@ -2258,7 +2292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>73</v>
       </c>
@@ -2278,7 +2312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="12"/>
       <c r="C99" s="11"/>
@@ -2286,7 +2320,7 @@
       <c r="E99" s="12"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
       <c r="C100" s="11"/>
@@ -2294,7 +2328,7 @@
       <c r="E100" s="12"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
       <c r="C101" s="11"/>
@@ -2302,7 +2336,7 @@
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>13</v>
       </c>
@@ -2314,7 +2348,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -2322,7 +2356,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +2376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>59</v>
       </c>
@@ -2382,7 +2416,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>60</v>
       </c>
@@ -2402,7 +2436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>61</v>
       </c>
@@ -2422,7 +2456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +2468,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -2442,7 +2476,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>15</v>
       </c>
@@ -2462,7 +2496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>10</v>
       </c>
@@ -2485,7 +2519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>40</v>
       </c>
@@ -2505,7 +2539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
@@ -2525,7 +2559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>46</v>
       </c>
@@ -2545,7 +2579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -2565,7 +2599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>5</v>
       </c>
@@ -2585,7 +2619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>64</v>
       </c>
@@ -2608,7 +2642,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>30</v>
       </c>
@@ -2628,7 +2662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>13</v>
       </c>
@@ -2640,7 +2674,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -2648,7 +2682,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>15</v>
       </c>
@@ -2668,7 +2702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>66</v>
       </c>
@@ -2688,7 +2722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>67</v>
       </c>
@@ -2711,7 +2745,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>13</v>
       </c>
@@ -2723,7 +2757,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -2731,7 +2765,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>15</v>
       </c>
@@ -2751,7 +2785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>8</v>
       </c>
@@ -2771,7 +2805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>69</v>
       </c>
@@ -2791,7 +2825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>70</v>
       </c>
@@ -2811,7 +2845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>66</v>
       </c>
@@ -2831,7 +2865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
@@ -2851,7 +2885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>40</v>
       </c>
@@ -2871,7 +2905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>13</v>
       </c>
@@ -2883,7 +2917,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -2891,7 +2925,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>15</v>
       </c>
@@ -2911,7 +2945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>10</v>
       </c>
@@ -2931,7 +2965,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>8</v>
       </c>
@@ -2951,7 +2985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>13</v>
       </c>
@@ -2963,7 +2997,7 @@
       <c r="E154" s="3"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -2971,7 +3005,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>15</v>
       </c>
@@ -2991,7 +3025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>10</v>
       </c>
@@ -3011,7 +3045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>8</v>
       </c>
@@ -3031,7 +3065,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>59</v>
       </c>
@@ -3051,7 +3085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>12</v>
       </c>
@@ -3091,7 +3125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="18" t="s">
         <v>125</v>
       </c>
@@ -3112,7 +3146,7 @@
       </c>
       <c r="G162" s="21"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>75</v>
       </c>
@@ -3132,7 +3166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="7"/>
       <c r="C164" s="9"/>
@@ -3140,7 +3174,7 @@
       <c r="E164" s="7"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="7"/>
       <c r="C165" s="9"/>
@@ -3148,7 +3182,7 @@
       <c r="E165" s="7"/>
       <c r="F165" s="6"/>
     </row>
-    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>13</v>
       </c>
@@ -3160,7 +3194,7 @@
       <c r="E167" s="3"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -3168,7 +3202,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>15</v>
       </c>
@@ -3188,7 +3222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>76</v>
       </c>
@@ -3208,7 +3242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +3262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>59</v>
       </c>
@@ -3248,7 +3282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="18" t="s">
         <v>126</v>
       </c>
@@ -3269,7 +3303,7 @@
       </c>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>80</v>
       </c>
@@ -3289,7 +3323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>13</v>
       </c>
@@ -3301,7 +3335,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -3309,7 +3343,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>15</v>
       </c>
@@ -3329,7 +3363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>76</v>
       </c>
@@ -3349,7 +3383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>10</v>
       </c>
@@ -3369,7 +3403,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>59</v>
       </c>
@@ -3389,7 +3423,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="18" t="s">
         <v>60</v>
       </c>
@@ -3410,7 +3444,7 @@
       </c>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
         <v>126</v>
       </c>
@@ -3433,7 +3467,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="18" t="s">
         <v>77</v>
       </c>
@@ -3456,7 +3490,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>13</v>
       </c>
@@ -3468,7 +3502,7 @@
       <c r="E190" s="3"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -3476,7 +3510,7 @@
       <c r="E191" s="3"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>15</v>
       </c>
@@ -3496,7 +3530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>10</v>
       </c>
@@ -3516,7 +3550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>59</v>
       </c>
@@ -3536,7 +3570,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>82</v>
       </c>
@@ -3556,7 +3590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>83</v>
       </c>
@@ -3576,7 +3610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>84</v>
       </c>
@@ -3596,7 +3630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>85</v>
       </c>
@@ -3616,7 +3650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>86</v>
       </c>
@@ -3636,7 +3670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>87</v>
       </c>
@@ -3656,7 +3690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>88</v>
       </c>
@@ -3676,7 +3710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>89</v>
       </c>
@@ -3696,7 +3730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>90</v>
       </c>
@@ -3716,7 +3750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
         <v>91</v>
       </c>
@@ -3736,7 +3770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>13</v>
       </c>
@@ -3748,7 +3782,7 @@
       <c r="E208" s="3"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="2"/>
@@ -3756,7 +3790,7 @@
       <c r="E209" s="3"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>15</v>
       </c>
@@ -3776,7 +3810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -3796,7 +3830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>95</v>
       </c>
@@ -3819,7 +3853,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>13</v>
       </c>
@@ -3831,7 +3865,7 @@
       <c r="E216" s="3"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="2"/>
@@ -3839,7 +3873,7 @@
       <c r="E217" s="3"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>15</v>
       </c>
@@ -3859,7 +3893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -3879,7 +3913,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>94</v>
       </c>
@@ -3897,7 +3931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>97</v>
       </c>
@@ -3915,7 +3949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
         <v>98</v>
       </c>
@@ -3933,7 +3967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="23" t="s">
         <v>99</v>
       </c>
@@ -3943,7 +3977,7 @@
       <c r="E225" s="24"/>
       <c r="F225" s="25"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="26"/>
       <c r="B226" s="27"/>
       <c r="C226" s="27"/>
@@ -3951,7 +3985,7 @@
       <c r="E226" s="27"/>
       <c r="F226" s="28"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="26"/>
       <c r="B227" s="27"/>
       <c r="C227" s="27"/>
@@ -3959,7 +3993,7 @@
       <c r="E227" s="27"/>
       <c r="F227" s="28"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="26"/>
       <c r="B228" s="27"/>
       <c r="C228" s="27"/>
@@ -3967,7 +4001,7 @@
       <c r="E228" s="27"/>
       <c r="F228" s="28"/>
     </row>
-    <row r="229" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="29"/>
       <c r="B229" s="30"/>
       <c r="C229" s="30"/>
@@ -3975,7 +4009,7 @@
       <c r="E229" s="30"/>
       <c r="F229" s="31"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326" s="1">
         <v>1</v>
       </c>
@@ -3995,7 +4029,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FeedbackDatabaseDesign.xlsx
+++ b/FeedbackDatabaseDesign.xlsx
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,22 +1646,22 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="C47" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>26</v>
       </c>
     </row>

--- a/FeedbackDatabaseDesign.xlsx
+++ b/FeedbackDatabaseDesign.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Feedback\feedback\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="569"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" tabRatio="569"/>
   </bookViews>
   <sheets>
     <sheet name="ERDesign" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="129">
   <si>
     <t>effective_from</t>
   </si>
@@ -401,13 +401,19 @@
   </si>
   <si>
     <t>feedback_weighting</t>
+  </si>
+  <si>
+    <t>Redundant storage of start date and end date</t>
+  </si>
+  <si>
+    <t>This is the only primary key, what is its significance?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,8 +443,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -576,7 +603,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -650,6 +677,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -746,23 +782,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -798,23 +817,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -993,22 +995,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="80.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="80.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -1031,7 +1033,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +1074,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1103,7 +1105,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1111,7 +1113,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1119,7 +1121,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1131,7 +1133,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -1139,7 +1141,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1180,7 +1182,7 @@
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1240,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -1246,7 +1248,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1309,7 +1311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1443,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -1449,7 +1451,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1492,7 +1494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>48</v>
       </c>
@@ -1535,7 +1537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1552,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
@@ -1558,7 +1560,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -1599,7 +1601,7 @@
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -1622,7 +1624,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>45</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -1680,7 +1682,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2"/>
@@ -1688,7 +1690,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>15</v>
       </c>
@@ -1708,7 +1710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +1765,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2"/>
@@ -1771,7 +1773,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>15</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>54</v>
       </c>
@@ -1834,7 +1836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -1846,7 +1848,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="2"/>
@@ -1854,7 +1856,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>15</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>40</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>46</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>47</v>
       </c>
@@ -1980,7 +1982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>49</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>50</v>
       </c>
@@ -2069,7 +2071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>13</v>
       </c>
@@ -2081,7 +2083,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -2089,7 +2091,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>15</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>40</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>43</v>
       </c>
@@ -2149,7 +2151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>46</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>55</v>
       </c>
@@ -2192,7 +2194,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>63</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>56</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>13</v>
       </c>
@@ -2244,7 +2246,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
@@ -2252,7 +2254,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>15</v>
       </c>
@@ -2272,7 +2274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>59</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>73</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="12"/>
       <c r="C99" s="11"/>
@@ -2320,7 +2322,7 @@
       <c r="E99" s="12"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
       <c r="C100" s="11"/>
@@ -2328,7 +2330,7 @@
       <c r="E100" s="12"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
       <c r="C101" s="11"/>
@@ -2336,7 +2338,7 @@
       <c r="E101" s="12"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>13</v>
       </c>
@@ -2348,7 +2350,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -2356,7 +2358,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>15</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>0</v>
       </c>
@@ -2396,7 +2398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>59</v>
       </c>
@@ -2416,7 +2418,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>60</v>
       </c>
@@ -2436,7 +2438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>61</v>
       </c>
@@ -2456,7 +2458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>13</v>
       </c>
@@ -2468,7 +2470,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -2476,7 +2478,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>15</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>10</v>
       </c>
@@ -2519,7 +2521,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>40</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>43</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>46</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>5</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>64</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>30</v>
       </c>
@@ -2662,7 +2664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>13</v>
       </c>
@@ -2674,7 +2676,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -2682,7 +2684,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>15</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>66</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>67</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>13</v>
       </c>
@@ -2757,7 +2759,7 @@
       <c r="E134" s="3"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
@@ -2765,7 +2767,7 @@
       <c r="E135" s="3"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>15</v>
       </c>
@@ -2785,7 +2787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>8</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>69</v>
       </c>
@@ -2825,7 +2827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>70</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>66</v>
       </c>
@@ -2865,7 +2867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>40</v>
       </c>
@@ -2905,7 +2907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>13</v>
       </c>
@@ -2917,7 +2919,7 @@
       <c r="E146" s="3"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -2925,7 +2927,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +2947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>10</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>8</v>
       </c>
@@ -2985,19 +2987,22 @@
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
+    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C154" s="35"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="35"/>
+      <c r="G154" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
@@ -3005,7 +3010,7 @@
       <c r="E155" s="3"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>15</v>
       </c>
@@ -3025,7 +3030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>10</v>
       </c>
@@ -3045,7 +3050,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>8</v>
       </c>
@@ -3065,7 +3070,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>59</v>
       </c>
@@ -3085,7 +3090,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>11</v>
       </c>
@@ -3105,7 +3110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>12</v>
       </c>
@@ -3125,7 +3130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
         <v>125</v>
       </c>
@@ -3146,7 +3151,7 @@
       </c>
       <c r="G162" s="21"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>75</v>
       </c>
@@ -3166,7 +3171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="7"/>
       <c r="C164" s="9"/>
@@ -3174,7 +3179,7 @@
       <c r="E164" s="7"/>
       <c r="F164" s="6"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="7"/>
       <c r="C165" s="9"/>
@@ -3182,7 +3187,7 @@
       <c r="E165" s="7"/>
       <c r="F165" s="6"/>
     </row>
-    <row r="167" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>13</v>
       </c>
@@ -3194,7 +3199,7 @@
       <c r="E167" s="3"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
@@ -3202,7 +3207,7 @@
       <c r="E168" s="3"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>15</v>
       </c>
@@ -3222,8 +3227,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -3241,8 +3246,11 @@
       <c r="F170" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G170" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>10</v>
       </c>
@@ -3262,7 +3270,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>59</v>
       </c>
@@ -3282,7 +3290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
         <v>126</v>
       </c>
@@ -3303,7 +3311,7 @@
       </c>
       <c r="G173" s="21"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>80</v>
       </c>
@@ -3323,7 +3331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>13</v>
       </c>
@@ -3335,7 +3343,7 @@
       <c r="E178" s="3"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="2"/>
@@ -3343,7 +3351,7 @@
       <c r="E179" s="3"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>15</v>
       </c>
@@ -3363,7 +3371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>76</v>
       </c>
@@ -3383,7 +3391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>10</v>
       </c>
@@ -3403,7 +3411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>59</v>
       </c>
@@ -3423,7 +3431,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>60</v>
       </c>
@@ -3444,7 +3452,7 @@
       </c>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
         <v>126</v>
       </c>
@@ -3467,7 +3475,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
         <v>77</v>
       </c>
@@ -3490,7 +3498,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>13</v>
       </c>
@@ -3502,7 +3510,7 @@
       <c r="E190" s="3"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="2"/>
@@ -3510,7 +3518,7 @@
       <c r="E191" s="3"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>15</v>
       </c>
@@ -3530,7 +3538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>10</v>
       </c>
@@ -3550,7 +3558,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>59</v>
       </c>
@@ -3570,7 +3578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>82</v>
       </c>
@@ -3590,7 +3598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>83</v>
       </c>
@@ -3610,7 +3618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>84</v>
       </c>
@@ -3630,7 +3638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>85</v>
       </c>
@@ -3650,7 +3658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>86</v>
       </c>
@@ -3670,7 +3678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>87</v>
       </c>
@@ -3690,7 +3698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>88</v>
       </c>
@@ -3710,7 +3718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>89</v>
       </c>
@@ -3730,7 +3738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>90</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>91</v>
       </c>
@@ -3770,7 +3778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>13</v>
       </c>
@@ -3782,7 +3790,7 @@
       <c r="E208" s="3"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="2"/>
@@ -3790,7 +3798,7 @@
       <c r="E209" s="3"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>15</v>
       </c>
@@ -3810,7 +3818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>93</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>95</v>
       </c>
@@ -3853,7 +3861,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>13</v>
       </c>
@@ -3865,7 +3873,7 @@
       <c r="E216" s="3"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="2"/>
@@ -3873,7 +3881,7 @@
       <c r="E217" s="3"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>15</v>
       </c>
@@ -3893,7 +3901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>93</v>
       </c>
@@ -3913,7 +3921,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>94</v>
       </c>
@@ -3931,7 +3939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>97</v>
       </c>
@@ -3949,7 +3957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>98</v>
       </c>
@@ -3967,7 +3975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
         <v>99</v>
       </c>
@@ -3977,7 +3985,7 @@
       <c r="E225" s="24"/>
       <c r="F225" s="25"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="26"/>
       <c r="B226" s="27"/>
       <c r="C226" s="27"/>
@@ -3985,7 +3993,7 @@
       <c r="E226" s="27"/>
       <c r="F226" s="28"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="26"/>
       <c r="B227" s="27"/>
       <c r="C227" s="27"/>
@@ -3993,7 +4001,7 @@
       <c r="E227" s="27"/>
       <c r="F227" s="28"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="26"/>
       <c r="B228" s="27"/>
       <c r="C228" s="27"/>
@@ -4001,7 +4009,7 @@
       <c r="E228" s="27"/>
       <c r="F228" s="28"/>
     </row>
-    <row r="229" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="29"/>
       <c r="B229" s="30"/>
       <c r="C229" s="30"/>
@@ -4009,7 +4017,7 @@
       <c r="E229" s="30"/>
       <c r="F229" s="31"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>1</v>
       </c>
@@ -4029,7 +4037,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FeedbackDatabaseDesign.xlsx
+++ b/FeedbackDatabaseDesign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Feedback\feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myprojects\Feedback\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="131">
   <si>
     <t>effective_from</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>This is the only primary key, what is its significance?</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>What about feedback questions for lab subjects? Comments or ques?</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -651,6 +657,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -678,14 +693,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -995,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,16 +3006,16 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="33" t="s">
+      <c r="A154" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C154" s="35"/>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="35"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="26"/>
       <c r="G154" t="s">
         <v>127</v>
       </c>
@@ -3228,7 +3246,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="32" t="s">
+      <c r="A170" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -3976,46 +3994,64 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="23" t="s">
+      <c r="A225" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B225" s="24"/>
-      <c r="C225" s="24"/>
-      <c r="D225" s="24"/>
-      <c r="E225" s="24"/>
-      <c r="F225" s="25"/>
+      <c r="B225" s="29"/>
+      <c r="C225" s="29"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="29"/>
+      <c r="F225" s="30"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="26"/>
-      <c r="B226" s="27"/>
-      <c r="C226" s="27"/>
-      <c r="D226" s="27"/>
-      <c r="E226" s="27"/>
-      <c r="F226" s="28"/>
+      <c r="A226" s="31"/>
+      <c r="B226" s="32"/>
+      <c r="C226" s="32"/>
+      <c r="D226" s="32"/>
+      <c r="E226" s="32"/>
+      <c r="F226" s="33"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="26"/>
-      <c r="B227" s="27"/>
-      <c r="C227" s="27"/>
-      <c r="D227" s="27"/>
-      <c r="E227" s="27"/>
-      <c r="F227" s="28"/>
+      <c r="A227" s="31"/>
+      <c r="B227" s="32"/>
+      <c r="C227" s="32"/>
+      <c r="D227" s="32"/>
+      <c r="E227" s="32"/>
+      <c r="F227" s="33"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="26"/>
-      <c r="B228" s="27"/>
-      <c r="C228" s="27"/>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" s="28"/>
+      <c r="A228" s="31"/>
+      <c r="B228" s="32"/>
+      <c r="C228" s="32"/>
+      <c r="D228" s="32"/>
+      <c r="E228" s="32"/>
+      <c r="F228" s="33"/>
     </row>
     <row r="229" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="29"/>
-      <c r="B229" s="30"/>
-      <c r="C229" s="30"/>
-      <c r="D229" s="30"/>
-      <c r="E229" s="30"/>
-      <c r="F229" s="31"/>
+      <c r="A229" s="34"/>
+      <c r="B229" s="35"/>
+      <c r="C229" s="35"/>
+      <c r="D229" s="35"/>
+      <c r="E229" s="35"/>
+      <c r="F229" s="36"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B234" s="38"/>
+      <c r="C234" s="37"/>
+      <c r="D234" s="38"/>
+      <c r="E234" s="38"/>
+      <c r="F234" s="37"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B235" s="39"/>
+      <c r="C235" s="39"/>
+      <c r="D235" s="39"/>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
@@ -4023,8 +4059,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A225:F229"/>
+    <mergeCell ref="A235:D235"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
